--- a/日経社説ー春秋/自民党総裁３選を狙う首相は何をすべきか.xlsx
+++ b/日経社説ー春秋/自民党総裁３選を狙う首相は何をすべきか.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywu\Desktop\translation\日経社説ー春秋\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,108 +19,113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>足取り</t>
-  </si>
-  <si>
-    <t>底上げ</t>
-  </si>
-  <si>
-    <t>力説</t>
-  </si>
-  <si>
-    <t>熱気</t>
-  </si>
-  <si>
-    <t>肝煎り</t>
-  </si>
-  <si>
-    <t>際立つ</t>
-  </si>
-  <si>
-    <t>順風満帆</t>
-  </si>
-  <si>
-    <t>底堅い</t>
-  </si>
-  <si>
-    <t>日報</t>
-  </si>
-  <si>
-    <t>評価額</t>
-  </si>
-  <si>
-    <t>あしどり</t>
-  </si>
-  <si>
-    <t>相場の動向。</t>
-  </si>
-  <si>
-    <t>そこあげ</t>
-  </si>
-  <si>
-    <t>一番低い部分を引き上げることによって全体の水準を高めること。</t>
-  </si>
-  <si>
-    <t>りきせつ</t>
-  </si>
-  <si>
-    <t>相手を納得させようとして、力を込めて述べること。</t>
-  </si>
-  <si>
-    <t>ねっき</t>
-  </si>
-  <si>
-    <t>夢中になって、高ぶった雰囲気。</t>
-  </si>
-  <si>
-    <t>きもいり</t>
-  </si>
-  <si>
-    <t>双方の間を取り持って心を砕き世話を焼くこと。また、その人。</t>
-  </si>
-  <si>
-    <t>きわだつ</t>
-  </si>
-  <si>
-    <t>ほかとの違いや区別が明瞭である。目立つ。主によいことの場合にいう。</t>
-  </si>
-  <si>
-    <t>じゅんぷうまんぱん</t>
-  </si>
-  <si>
-    <t>追い風を受け、帆がいっぱいに膨らむこと。転じて、物事が順調に思い通りに運ぶことの喩え。</t>
-  </si>
-  <si>
-    <t>そこがたい</t>
-  </si>
-  <si>
-    <t>取引で、相場が下がりそうな気配を見せながらも以外に下がらない。下げ足が泊まっている状態をいう。</t>
-  </si>
-  <si>
-    <t>にっぽう</t>
-  </si>
-  <si>
-    <t>毎日行う報告。</t>
-  </si>
-  <si>
-    <t>ひょうかがく</t>
-  </si>
-  <si>
-    <t>株式などの保有資産を時価で評価した場合の価値。または、固定資産税評価額など、税額算出の根拠となる金額。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>自民党がいつかに党大会を開き、安倍晋三首相の総裁３選を可能とする党則改正を決めた。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首相は挨拶で「長引く不況で失われた国民総所得５０兆円を昨年とうとう私達は取り戻すことができた」と力説した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自民党は２０１２年末の政権復帰から国政選挙で４連勝し、内閣支持率は約６割と高い。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首相は肝煎りの安全保障関連法などを成立させ、政界は「安倍一強」が際立っている。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ただ日本を取り巻く状況は順風満帆とは言い難い。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足元の景気は底堅さも一部に見えるが、個人消費などは伸びを欠いたままだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安倍政権は消費税率の１０％へ引き上げを２度に渡って延期した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>財政均衡と社会保証制度の改革という難題に正面から取り組まなければ、国民の根強い将来不安は解消できない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規制改革や働き方の見直しなどを通じて生産性を向上し、日本の潜在成長力を引き上げていく必要がある。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首相は挨拶で「憲法改正の発議にむけて具体的な議論をリードしていく。それこそが自民党の歴史的使命ではないか」とも強調した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>憲法のあり方は重要なテーマだが、野党との丁寧な議論の積み重ねが有権者の理解の前提となることを忘れてはならない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大阪府豊中市の国有地が学校法人「森友学園」に評価額より大幅に安く売却された問題も波紋を広げている。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自民党は短命内閣の負の連鎖を断ち切り、安定した政治を回復した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だが長期政権の緩みや奢りが目立つようだと有権者の信頼は一気に揺らぐ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与えられた力を何に使うのか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その選択と結果が厳しく問われる時期に入っている。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安倍政権の下で雇用や企業収益は改善したが、景気の足取りはなお力強さを欠いている。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首相がさらに長期政権を目指すのであれば、成長力底上げや財政健全化といった中長期な課題への取り組みをもう一段加速していく必要がある。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雇用や賃上げ、首脳外交の実績を列挙する姿は自信に溢れ、会場は多くの参加者で熱気に包まれた。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二階俊博幹事長は党務報告で昨年末時点の党員数が八年ぶりに１００万人を回復したと胸を張った。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首相が来年に総裁３選を果たせば、次の任期は２１年秋までとなる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今国会では南スーダンでの国連平和維持活動（PKO)の日報問題やテロ等準備罪の新設などをめぐり、閣僚が追究を受ける場面が目立つ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -149,11 +149,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -211,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,7 +249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,138 +426,140 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="93.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="27">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="27">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="27">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="27">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="27">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="17" spans="1:1" ht="27">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>